--- a/intermedios/03_enlistamiento/01_concistencia/periodo_13/incon_man_sec_upm_periodo_13.xlsx
+++ b/intermedios/03_enlistamiento/01_concistencia/periodo_13/incon_man_sec_upm_periodo_13.xlsx
@@ -1,787 +1,797 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OMAR LLAMBO\Proyectos\enighur_2024\intermedios\03_enlistamiento\01_concistencia\periodo_13\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="man_sec_nuevos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="man_sec_no_enlistados" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="upm_incompletas" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="upm_no_enlistadas" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="man_sec_nuevos" sheetId="1" r:id="rId1"/>
+    <sheet name="man_sec_no_enlistados" sheetId="2" r:id="rId2"/>
+    <sheet name="upm_incompletas" sheetId="3" r:id="rId3"/>
+    <sheet name="upm_no_enlistadas" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">man_sec_no_enlistados!$A$1:$D$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">man_sec_nuevos!$A$1:$D$125</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
-  <si>
-    <t xml:space="preserve">id_upm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">man_sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipo_formulario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estado_upm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010150030401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010150047001009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dividido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010150047001010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">030150011301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">030150009007007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">030150009007008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060150000401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060150002004017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060251000201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060251001002015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060750003001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060750001008016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060750001008017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070250006101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070250003009015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070250003009016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070250003009017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070250003009018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">071250017501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">071250903001010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">071250903001011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150020001009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080350002301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080350001005012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090150239101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090150549003009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090850007301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090850006010032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092150017201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092150014010011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092150014010012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092150015002025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110350000601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110350001004022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110350001005016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110750000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110750001002014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110750001002015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110750001002016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111150001201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111150001006014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111150001006015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120450000501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120450001005005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120450001005006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120550045501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120550031006012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120550031009011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120550031013024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120850010301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120850007005007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120850007005008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120850007005009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120850007007013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120850007007014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120850007009015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130150009201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130150011009004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130652000201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130652001002011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130652001003009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130850039301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130850037009014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130850078601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130850056003004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130950017101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130950002009022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130950002009023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140150008001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140150008008014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140150008008015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140164000201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140164001004011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140164001004012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140164001006020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140164001006021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150150000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150150902001038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150150902001039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150150902001040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150150902001041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150150902001042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150150902001043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170150007301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170150282001007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170350007501</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170350005006005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170350005006006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170350005006007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180161001001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180161924001020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180161924001021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180161924001022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180161924001023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180161924001024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180161924001025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190151000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190151904001021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001001017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001001018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001001019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001001020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001001021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001001022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001001023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001002022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001002023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001002024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001002025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001002026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210150020301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210150014001014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210150015011014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210150015011015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210150015011016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220150004901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220150006003018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">010150047001003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">030150009007003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060150002004002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060251001002009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060251001002010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">060750001008015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070250003006010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070250003009003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070250003009005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070250003009006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070250003009007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070250003010003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">071250903001001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">071250903001002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">071250903001004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">071250903001009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150020001008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080150021003020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">080350001005007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090150549003003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090150549003004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090850006010026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">090850006010027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092150014010002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092150015002007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">092150015002008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100350902601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100350999021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100450002601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100450001004001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100450001004002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100450001005003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100450001005006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100450001005007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100450001005008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100450001005009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100450001005010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100450016401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100450010011006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100450010012003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110350001004017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110350001004018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110350001005008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110350001005010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110750001002002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">111150001006009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120450001005002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120550031006010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120550031009006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120550031009007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120550031009008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120550031013009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120550031013010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120850007005006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120850007007007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120850007009005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130150011009002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130652001001021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130652001001022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130652001002005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130652001002006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130652001003003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130652001003004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130652001003007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130850037009011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130850037009012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130850056003002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">130950002009007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140150008008006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140164001004004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140164001006003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150150902001011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150150902001012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">150150902001032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170150282001002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170150282001003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170150357301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170150079005002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descartado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170150079005003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170150079005004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170350005006002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180161924001016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180161924001017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">180161924001018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190151904001001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190151904001002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001001001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001001002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001001005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001001009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190853001002001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200150003001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200150003005004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210150014001012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210150014001013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210150015011009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210150015011011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220150006003016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220150006003017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_man_sec_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n_man_sec_b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_conglomerado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1003509026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no supermanzana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1004500026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1004500164</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="253">
+  <si>
+    <t>id_upm</t>
+  </si>
+  <si>
+    <t>man_sec</t>
+  </si>
+  <si>
+    <t>tipo_formulario</t>
+  </si>
+  <si>
+    <t>estado_upm</t>
+  </si>
+  <si>
+    <t>010150030401</t>
+  </si>
+  <si>
+    <t>010150047001009</t>
+  </si>
+  <si>
+    <t>Dividido</t>
+  </si>
+  <si>
+    <t>Completa</t>
+  </si>
+  <si>
+    <t>010150047001010</t>
+  </si>
+  <si>
+    <t>030150011301</t>
+  </si>
+  <si>
+    <t>030150009007007</t>
+  </si>
+  <si>
+    <t>030150009007008</t>
+  </si>
+  <si>
+    <t>060150000401</t>
+  </si>
+  <si>
+    <t>060150002004017</t>
+  </si>
+  <si>
+    <t>Unido</t>
+  </si>
+  <si>
+    <t>060251000201</t>
+  </si>
+  <si>
+    <t>060251001002015</t>
+  </si>
+  <si>
+    <t>060750003001</t>
+  </si>
+  <si>
+    <t>060750001008016</t>
+  </si>
+  <si>
+    <t>060750001008017</t>
+  </si>
+  <si>
+    <t>070250006101</t>
+  </si>
+  <si>
+    <t>070250003009015</t>
+  </si>
+  <si>
+    <t>070250003009016</t>
+  </si>
+  <si>
+    <t>070250003009017</t>
+  </si>
+  <si>
+    <t>070250003009018</t>
+  </si>
+  <si>
+    <t>071250017501</t>
+  </si>
+  <si>
+    <t>071250903001010</t>
+  </si>
+  <si>
+    <t>071250903001011</t>
+  </si>
+  <si>
+    <t>080150021101</t>
+  </si>
+  <si>
+    <t>080150020001009</t>
+  </si>
+  <si>
+    <t>080150021003023</t>
+  </si>
+  <si>
+    <t>080150021003024</t>
+  </si>
+  <si>
+    <t>080150021003025</t>
+  </si>
+  <si>
+    <t>080350002301</t>
+  </si>
+  <si>
+    <t>080350001005012</t>
+  </si>
+  <si>
+    <t>090150239101</t>
+  </si>
+  <si>
+    <t>090150549003009</t>
+  </si>
+  <si>
+    <t>090850007301</t>
+  </si>
+  <si>
+    <t>090850006010032</t>
+  </si>
+  <si>
+    <t>092150017201</t>
+  </si>
+  <si>
+    <t>092150014010011</t>
+  </si>
+  <si>
+    <t>092150014010012</t>
+  </si>
+  <si>
+    <t>092150015002025</t>
+  </si>
+  <si>
+    <t>110350000601</t>
+  </si>
+  <si>
+    <t>110350001004022</t>
+  </si>
+  <si>
+    <t>110350001005016</t>
+  </si>
+  <si>
+    <t>110750000101</t>
+  </si>
+  <si>
+    <t>110750001002014</t>
+  </si>
+  <si>
+    <t>110750001002015</t>
+  </si>
+  <si>
+    <t>110750001002016</t>
+  </si>
+  <si>
+    <t>111150001201</t>
+  </si>
+  <si>
+    <t>111150001006014</t>
+  </si>
+  <si>
+    <t>111150001006015</t>
+  </si>
+  <si>
+    <t>120450000501</t>
+  </si>
+  <si>
+    <t>120450001005005</t>
+  </si>
+  <si>
+    <t>120450001005006</t>
+  </si>
+  <si>
+    <t>120550045501</t>
+  </si>
+  <si>
+    <t>120550031006012</t>
+  </si>
+  <si>
+    <t>120550031009011</t>
+  </si>
+  <si>
+    <t>120550031013024</t>
+  </si>
+  <si>
+    <t>120850010301</t>
+  </si>
+  <si>
+    <t>120850007005007</t>
+  </si>
+  <si>
+    <t>120850007005008</t>
+  </si>
+  <si>
+    <t>120850007005009</t>
+  </si>
+  <si>
+    <t>120850007007013</t>
+  </si>
+  <si>
+    <t>120850007007014</t>
+  </si>
+  <si>
+    <t>120850007009015</t>
+  </si>
+  <si>
+    <t>130150009201</t>
+  </si>
+  <si>
+    <t>130150011009004</t>
+  </si>
+  <si>
+    <t>130652000201</t>
+  </si>
+  <si>
+    <t>130652001002011</t>
+  </si>
+  <si>
+    <t>130652001003009</t>
+  </si>
+  <si>
+    <t>130850039301</t>
+  </si>
+  <si>
+    <t>130850037009014</t>
+  </si>
+  <si>
+    <t>130850078601</t>
+  </si>
+  <si>
+    <t>130850056003004</t>
+  </si>
+  <si>
+    <t>130950017101</t>
+  </si>
+  <si>
+    <t>130950002009022</t>
+  </si>
+  <si>
+    <t>130950002009023</t>
+  </si>
+  <si>
+    <t>140150008001</t>
+  </si>
+  <si>
+    <t>140150008008014</t>
+  </si>
+  <si>
+    <t>140150008008015</t>
+  </si>
+  <si>
+    <t>140164000201</t>
+  </si>
+  <si>
+    <t>140164001004011</t>
+  </si>
+  <si>
+    <t>140164001004012</t>
+  </si>
+  <si>
+    <t>140164001006020</t>
+  </si>
+  <si>
+    <t>140164001006021</t>
+  </si>
+  <si>
+    <t>150150000101</t>
+  </si>
+  <si>
+    <t>150150902001038</t>
+  </si>
+  <si>
+    <t>150150902001039</t>
+  </si>
+  <si>
+    <t>150150902001040</t>
+  </si>
+  <si>
+    <t>150150902001041</t>
+  </si>
+  <si>
+    <t>150150902001042</t>
+  </si>
+  <si>
+    <t>150150902001043</t>
+  </si>
+  <si>
+    <t>170150007301</t>
+  </si>
+  <si>
+    <t>170150282001007</t>
+  </si>
+  <si>
+    <t>170350007501</t>
+  </si>
+  <si>
+    <t>170350005006005</t>
+  </si>
+  <si>
+    <t>170350005006006</t>
+  </si>
+  <si>
+    <t>170350005006007</t>
+  </si>
+  <si>
+    <t>180161001001</t>
+  </si>
+  <si>
+    <t>180161924001020</t>
+  </si>
+  <si>
+    <t>180161924001021</t>
+  </si>
+  <si>
+    <t>180161924001022</t>
+  </si>
+  <si>
+    <t>180161924001023</t>
+  </si>
+  <si>
+    <t>180161924001024</t>
+  </si>
+  <si>
+    <t>180161924001025</t>
+  </si>
+  <si>
+    <t>190151000101</t>
+  </si>
+  <si>
+    <t>190151904001021</t>
+  </si>
+  <si>
+    <t>190853000101</t>
+  </si>
+  <si>
+    <t>190853001001017</t>
+  </si>
+  <si>
+    <t>190853001001018</t>
+  </si>
+  <si>
+    <t>190853001001019</t>
+  </si>
+  <si>
+    <t>190853001001020</t>
+  </si>
+  <si>
+    <t>190853001001021</t>
+  </si>
+  <si>
+    <t>190853001001022</t>
+  </si>
+  <si>
+    <t>190853001001023</t>
+  </si>
+  <si>
+    <t>190853001002022</t>
+  </si>
+  <si>
+    <t>190853001002023</t>
+  </si>
+  <si>
+    <t>190853001002024</t>
+  </si>
+  <si>
+    <t>190853001002025</t>
+  </si>
+  <si>
+    <t>190853001002026</t>
+  </si>
+  <si>
+    <t>210150020301</t>
+  </si>
+  <si>
+    <t>210150014001014</t>
+  </si>
+  <si>
+    <t>210150015011014</t>
+  </si>
+  <si>
+    <t>210150015011015</t>
+  </si>
+  <si>
+    <t>210150015011016</t>
+  </si>
+  <si>
+    <t>220150004901</t>
+  </si>
+  <si>
+    <t>220150006003018</t>
+  </si>
+  <si>
+    <t>010150047001003</t>
+  </si>
+  <si>
+    <t>030150009007003</t>
+  </si>
+  <si>
+    <t>060150002004002</t>
+  </si>
+  <si>
+    <t>060251001002009</t>
+  </si>
+  <si>
+    <t>060251001002010</t>
+  </si>
+  <si>
+    <t>060750001008015</t>
+  </si>
+  <si>
+    <t>070250003006010</t>
+  </si>
+  <si>
+    <t>070250003009003</t>
+  </si>
+  <si>
+    <t>070250003009005</t>
+  </si>
+  <si>
+    <t>070250003009006</t>
+  </si>
+  <si>
+    <t>070250003009007</t>
+  </si>
+  <si>
+    <t>070250003010003</t>
+  </si>
+  <si>
+    <t>071250903001001</t>
+  </si>
+  <si>
+    <t>071250903001002</t>
+  </si>
+  <si>
+    <t>071250903001004</t>
+  </si>
+  <si>
+    <t>071250903001009</t>
+  </si>
+  <si>
+    <t>080150020001008</t>
+  </si>
+  <si>
+    <t>080150021003001</t>
+  </si>
+  <si>
+    <t>080150021003002</t>
+  </si>
+  <si>
+    <t>080150021003003</t>
+  </si>
+  <si>
+    <t>080150021003004</t>
+  </si>
+  <si>
+    <t>080150021003005</t>
+  </si>
+  <si>
+    <t>080150021003006</t>
+  </si>
+  <si>
+    <t>080150021003007</t>
+  </si>
+  <si>
+    <t>080150021003008</t>
+  </si>
+  <si>
+    <t>080150021003009</t>
+  </si>
+  <si>
+    <t>080150021003010</t>
+  </si>
+  <si>
+    <t>080150021003011</t>
+  </si>
+  <si>
+    <t>080150021003012</t>
+  </si>
+  <si>
+    <t>080150021003013</t>
+  </si>
+  <si>
+    <t>080150021003014</t>
+  </si>
+  <si>
+    <t>080150021003019</t>
+  </si>
+  <si>
+    <t>080150021003020</t>
+  </si>
+  <si>
+    <t>080350001005007</t>
+  </si>
+  <si>
+    <t>090150549003003</t>
+  </si>
+  <si>
+    <t>090150549003004</t>
+  </si>
+  <si>
+    <t>090850006010026</t>
+  </si>
+  <si>
+    <t>090850006010027</t>
+  </si>
+  <si>
+    <t>092150014010002</t>
+  </si>
+  <si>
+    <t>092150015002007</t>
+  </si>
+  <si>
+    <t>092150015002008</t>
+  </si>
+  <si>
+    <t>100350902601</t>
+  </si>
+  <si>
+    <t>100350999021</t>
+  </si>
+  <si>
+    <t>100450002601</t>
+  </si>
+  <si>
+    <t>100450001004001</t>
+  </si>
+  <si>
+    <t>100450001004002</t>
+  </si>
+  <si>
+    <t>100450001005003</t>
+  </si>
+  <si>
+    <t>100450001005006</t>
+  </si>
+  <si>
+    <t>100450001005007</t>
+  </si>
+  <si>
+    <t>100450001005008</t>
+  </si>
+  <si>
+    <t>100450001005009</t>
+  </si>
+  <si>
+    <t>100450001005010</t>
+  </si>
+  <si>
+    <t>100450016401</t>
+  </si>
+  <si>
+    <t>100450010011006</t>
+  </si>
+  <si>
+    <t>100450010012003</t>
+  </si>
+  <si>
+    <t>110350001004017</t>
+  </si>
+  <si>
+    <t>110350001004018</t>
+  </si>
+  <si>
+    <t>110350001005008</t>
+  </si>
+  <si>
+    <t>110350001005010</t>
+  </si>
+  <si>
+    <t>110750001002002</t>
+  </si>
+  <si>
+    <t>111150001006009</t>
+  </si>
+  <si>
+    <t>120450001005002</t>
+  </si>
+  <si>
+    <t>120550031006010</t>
+  </si>
+  <si>
+    <t>120550031009006</t>
+  </si>
+  <si>
+    <t>120550031009007</t>
+  </si>
+  <si>
+    <t>120550031009008</t>
+  </si>
+  <si>
+    <t>120550031013009</t>
+  </si>
+  <si>
+    <t>120550031013010</t>
+  </si>
+  <si>
+    <t>120850007005006</t>
+  </si>
+  <si>
+    <t>120850007007007</t>
+  </si>
+  <si>
+    <t>120850007009005</t>
+  </si>
+  <si>
+    <t>130150011009002</t>
+  </si>
+  <si>
+    <t>130652001001021</t>
+  </si>
+  <si>
+    <t>130652001001022</t>
+  </si>
+  <si>
+    <t>130652001002005</t>
+  </si>
+  <si>
+    <t>130652001002006</t>
+  </si>
+  <si>
+    <t>130652001003003</t>
+  </si>
+  <si>
+    <t>130652001003004</t>
+  </si>
+  <si>
+    <t>130652001003007</t>
+  </si>
+  <si>
+    <t>130850037009011</t>
+  </si>
+  <si>
+    <t>130850037009012</t>
+  </si>
+  <si>
+    <t>130850056003002</t>
+  </si>
+  <si>
+    <t>130950002009007</t>
+  </si>
+  <si>
+    <t>140150008008006</t>
+  </si>
+  <si>
+    <t>140164001004004</t>
+  </si>
+  <si>
+    <t>140164001006003</t>
+  </si>
+  <si>
+    <t>150150902001011</t>
+  </si>
+  <si>
+    <t>150150902001012</t>
+  </si>
+  <si>
+    <t>150150902001032</t>
+  </si>
+  <si>
+    <t>170150282001002</t>
+  </si>
+  <si>
+    <t>170150282001003</t>
+  </si>
+  <si>
+    <t>170150357301</t>
+  </si>
+  <si>
+    <t>170150079005002</t>
+  </si>
+  <si>
+    <t>Descartado</t>
+  </si>
+  <si>
+    <t>170150079005003</t>
+  </si>
+  <si>
+    <t>170150079005004</t>
+  </si>
+  <si>
+    <t>170350005006002</t>
+  </si>
+  <si>
+    <t>180161924001016</t>
+  </si>
+  <si>
+    <t>180161924001017</t>
+  </si>
+  <si>
+    <t>180161924001018</t>
+  </si>
+  <si>
+    <t>190151904001001</t>
+  </si>
+  <si>
+    <t>190151904001002</t>
+  </si>
+  <si>
+    <t>190853001001001</t>
+  </si>
+  <si>
+    <t>190853001001002</t>
+  </si>
+  <si>
+    <t>190853001001005</t>
+  </si>
+  <si>
+    <t>190853001001009</t>
+  </si>
+  <si>
+    <t>190853001002001</t>
+  </si>
+  <si>
+    <t>200150003001</t>
+  </si>
+  <si>
+    <t>200150003005004</t>
+  </si>
+  <si>
+    <t>210150014001012</t>
+  </si>
+  <si>
+    <t>210150014001013</t>
+  </si>
+  <si>
+    <t>210150015011009</t>
+  </si>
+  <si>
+    <t>210150015011011</t>
+  </si>
+  <si>
+    <t>220150006003016</t>
+  </si>
+  <si>
+    <t>220150006003017</t>
+  </si>
+  <si>
+    <t>n_man_sec_m</t>
+  </si>
+  <si>
+    <t>n_man_sec_b</t>
+  </si>
+  <si>
+    <t>dif</t>
+  </si>
+  <si>
+    <t>id_conglomerado</t>
+  </si>
+  <si>
+    <t>obs</t>
+  </si>
+  <si>
+    <t>1003509026</t>
+  </si>
+  <si>
+    <t>no supermanzana</t>
+  </si>
+  <si>
+    <t>1004500026</t>
+  </si>
+  <si>
+    <t>1004500164</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -817,6 +827,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1098,14 +1117,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1147,7 +1173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1161,7 +1187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1175,7 +1201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1189,7 +1215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1203,7 +1229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1231,7 +1257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1245,7 +1271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1259,7 +1285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1273,7 +1299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1287,7 +1313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1301,7 +1327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1315,7 +1341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1329,7 +1355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1343,7 +1369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1357,7 +1383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1371,7 +1397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1385,7 +1411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1399,7 +1425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1413,7 +1439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -1427,7 +1453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1441,7 +1467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1455,7 +1481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1469,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1483,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1497,7 +1523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1511,7 +1537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1525,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1539,7 +1565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1553,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1567,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1581,7 +1607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1595,7 +1621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1609,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1637,7 +1663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1651,7 +1677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1665,7 +1691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1679,7 +1705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1693,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -1707,7 +1733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -1721,7 +1747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -1735,7 +1761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1749,7 +1775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -1763,7 +1789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -1777,7 +1803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -1791,7 +1817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -1805,7 +1831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>46</v>
       </c>
@@ -1819,7 +1845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -1833,7 +1859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1847,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -1861,7 +1887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1875,7 +1901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -1889,7 +1915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1903,7 +1929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1917,7 +1943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1931,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -1945,7 +1971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -1959,7 +1985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -1973,7 +1999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -1987,7 +2013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -2001,7 +2027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>60</v>
       </c>
@@ -2015,7 +2041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -2029,7 +2055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -2043,7 +2069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>60</v>
       </c>
@@ -2057,7 +2083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2071,7 +2097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2085,7 +2111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2099,7 +2125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -2113,7 +2139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -2127,7 +2153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>69</v>
       </c>
@@ -2141,7 +2167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>69</v>
       </c>
@@ -2155,7 +2181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -2169,7 +2195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>72</v>
       </c>
@@ -2183,7 +2209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>72</v>
       </c>
@@ -2197,7 +2223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>74</v>
       </c>
@@ -2211,7 +2237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -2225,7 +2251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>76</v>
       </c>
@@ -2239,7 +2265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -2253,7 +2279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -2267,7 +2293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2281,7 +2307,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2295,7 +2321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -2309,7 +2335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -2323,7 +2349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2337,7 +2363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2351,7 +2377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -2365,7 +2391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -2379,7 +2405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>87</v>
       </c>
@@ -2393,7 +2419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>87</v>
       </c>
@@ -2407,7 +2433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -2421,7 +2447,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2435,7 +2461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -2449,7 +2475,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2463,7 +2489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2477,7 +2503,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -2491,7 +2517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -2505,7 +2531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -2519,7 +2545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2533,7 +2559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -2547,7 +2573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>100</v>
       </c>
@@ -2561,7 +2587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -2575,7 +2601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -2589,7 +2615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -2603,7 +2629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -2617,7 +2643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -2631,7 +2657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -2645,7 +2671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2659,7 +2685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -2673,7 +2699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>109</v>
       </c>
@@ -2687,7 +2713,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>109</v>
       </c>
@@ -2701,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>109</v>
       </c>
@@ -2715,7 +2741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>109</v>
       </c>
@@ -2729,7 +2755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>109</v>
       </c>
@@ -2743,7 +2769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>109</v>
       </c>
@@ -2757,7 +2783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>109</v>
       </c>
@@ -2771,7 +2797,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -2785,7 +2811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>122</v>
       </c>
@@ -2799,7 +2825,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -2813,7 +2839,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -2827,7 +2853,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -2841,7 +2867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -2856,20 +2882,29 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D125"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2883,7 +2918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2897,7 +2932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2911,7 +2946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2925,7 +2960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2939,7 +2974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2953,7 +2988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -2967,7 +3002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2981,7 +3016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2995,7 +3030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3009,7 +3044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3023,7 +3058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3037,7 +3072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -3051,7 +3086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3065,7 +3100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3079,7 +3114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -3093,7 +3128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -3107,7 +3142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -3121,7 +3156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3135,7 +3170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -3149,7 +3184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3163,7 +3198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3177,7 +3212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>28</v>
       </c>
@@ -3191,7 +3226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3205,7 +3240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -3219,7 +3254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -3233,7 +3268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -3247,7 +3282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -3261,7 +3296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3275,7 +3310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3289,7 +3324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -3303,7 +3338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -3317,7 +3352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -3331,7 +3366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -3345,7 +3380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -3359,7 +3394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -3373,7 +3408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -3387,7 +3422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -3401,7 +3436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -3415,7 +3450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -3429,7 +3464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -3443,7 +3478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -3457,7 +3492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -3471,7 +3506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -3485,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -3499,7 +3534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -3513,7 +3548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -3527,117 +3562,95 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>170</v>
       </c>
       <c r="B48" t="s">
         <v>171</v>
       </c>
-      <c r="C48"/>
-      <c r="D48"/>
-    </row>
-    <row r="49">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>172</v>
       </c>
       <c r="B49" t="s">
         <v>173</v>
       </c>
-      <c r="C49"/>
-      <c r="D49"/>
-    </row>
-    <row r="50">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>172</v>
       </c>
       <c r="B50" t="s">
         <v>174</v>
       </c>
-      <c r="C50"/>
-      <c r="D50"/>
-    </row>
-    <row r="51">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>172</v>
       </c>
       <c r="B51" t="s">
         <v>175</v>
       </c>
-      <c r="C51"/>
-      <c r="D51"/>
-    </row>
-    <row r="52">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>172</v>
       </c>
       <c r="B52" t="s">
         <v>176</v>
       </c>
-      <c r="C52"/>
-      <c r="D52"/>
-    </row>
-    <row r="53">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>172</v>
       </c>
       <c r="B53" t="s">
         <v>177</v>
       </c>
-      <c r="C53"/>
-      <c r="D53"/>
-    </row>
-    <row r="54">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>172</v>
       </c>
       <c r="B54" t="s">
         <v>178</v>
       </c>
-      <c r="C54"/>
-      <c r="D54"/>
-    </row>
-    <row r="55">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>172</v>
       </c>
       <c r="B55" t="s">
         <v>179</v>
       </c>
-      <c r="C55"/>
-      <c r="D55"/>
-    </row>
-    <row r="56">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>172</v>
       </c>
       <c r="B56" t="s">
         <v>180</v>
       </c>
-      <c r="C56"/>
-      <c r="D56"/>
-    </row>
-    <row r="57">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>181</v>
       </c>
       <c r="B57" t="s">
         <v>182</v>
       </c>
-      <c r="C57"/>
-      <c r="D57"/>
-    </row>
-    <row r="58">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>181</v>
       </c>
       <c r="B58" t="s">
         <v>183</v>
       </c>
-      <c r="C58"/>
-      <c r="D58"/>
-    </row>
-    <row r="59">
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -3651,7 +3664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -3665,7 +3678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -3679,7 +3692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -3693,7 +3706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>46</v>
       </c>
@@ -3707,7 +3720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>46</v>
       </c>
@@ -3721,7 +3734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>46</v>
       </c>
@@ -3735,7 +3748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -3749,7 +3762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>50</v>
       </c>
@@ -3763,7 +3776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -3777,7 +3790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -3791,7 +3804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -3805,7 +3818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>56</v>
       </c>
@@ -3819,7 +3832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>56</v>
       </c>
@@ -3833,7 +3846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>56</v>
       </c>
@@ -3847,7 +3860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -3861,7 +3874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>56</v>
       </c>
@@ -3875,7 +3888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>60</v>
       </c>
@@ -3889,7 +3902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>60</v>
       </c>
@@ -3903,7 +3916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>60</v>
       </c>
@@ -3917,7 +3930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>60</v>
       </c>
@@ -3931,7 +3944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -3945,7 +3958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>60</v>
       </c>
@@ -3959,7 +3972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -3973,7 +3986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>69</v>
       </c>
@@ -3987,7 +4000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -4001,7 +4014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -4015,7 +4028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -4029,7 +4042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>69</v>
       </c>
@@ -4043,7 +4056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>69</v>
       </c>
@@ -4057,7 +4070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>69</v>
       </c>
@@ -4071,7 +4084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>72</v>
       </c>
@@ -4085,7 +4098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>72</v>
       </c>
@@ -4099,7 +4112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -4113,7 +4126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>76</v>
       </c>
@@ -4127,7 +4140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>76</v>
       </c>
@@ -4141,7 +4154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>79</v>
       </c>
@@ -4155,7 +4168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>79</v>
       </c>
@@ -4169,7 +4182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>82</v>
       </c>
@@ -4183,7 +4196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>82</v>
       </c>
@@ -4197,7 +4210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>82</v>
       </c>
@@ -4211,7 +4224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>82</v>
       </c>
@@ -4225,7 +4238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>87</v>
       </c>
@@ -4239,7 +4252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -4253,7 +4266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>87</v>
       </c>
@@ -4267,7 +4280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>87</v>
       </c>
@@ -4281,7 +4294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -4295,7 +4308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>87</v>
       </c>
@@ -4309,7 +4322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>94</v>
       </c>
@@ -4323,7 +4336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>94</v>
       </c>
@@ -4337,7 +4350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>220</v>
       </c>
@@ -4347,9 +4360,8 @@
       <c r="C109" t="s">
         <v>222</v>
       </c>
-      <c r="D109"/>
-    </row>
-    <row r="110">
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>220</v>
       </c>
@@ -4359,9 +4371,8 @@
       <c r="C110" t="s">
         <v>222</v>
       </c>
-      <c r="D110"/>
-    </row>
-    <row r="111">
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>220</v>
       </c>
@@ -4371,9 +4382,8 @@
       <c r="C111" t="s">
         <v>222</v>
       </c>
-      <c r="D111"/>
-    </row>
-    <row r="112">
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>96</v>
       </c>
@@ -4387,7 +4397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>96</v>
       </c>
@@ -4401,7 +4411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -4415,7 +4425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>100</v>
       </c>
@@ -4429,7 +4439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>100</v>
       </c>
@@ -4443,7 +4453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>100</v>
       </c>
@@ -4457,7 +4467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>100</v>
       </c>
@@ -4471,7 +4481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>100</v>
       </c>
@@ -4485,7 +4495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>100</v>
       </c>
@@ -4499,7 +4509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>107</v>
       </c>
@@ -4513,7 +4523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>107</v>
       </c>
@@ -4527,7 +4537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>109</v>
       </c>
@@ -4541,7 +4551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>109</v>
       </c>
@@ -4555,7 +4565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>109</v>
       </c>
@@ -4569,7 +4579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>109</v>
       </c>
@@ -4583,7 +4593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>109</v>
       </c>
@@ -4597,7 +4607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>109</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>109</v>
       </c>
@@ -4625,7 +4635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>109</v>
       </c>
@@ -4639,7 +4649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>109</v>
       </c>
@@ -4653,7 +4663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>109</v>
       </c>
@@ -4667,7 +4677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>109</v>
       </c>
@@ -4681,7 +4691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>109</v>
       </c>
@@ -4695,7 +4705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>109</v>
       </c>
@@ -4709,7 +4719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>236</v>
       </c>
@@ -4723,7 +4733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>122</v>
       </c>
@@ -4737,7 +4747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>122</v>
       </c>
@@ -4751,7 +4761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>122</v>
       </c>
@@ -4765,7 +4775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>122</v>
       </c>
@@ -4779,7 +4789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>122</v>
       </c>
@@ -4793,7 +4803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>127</v>
       </c>
@@ -4807,7 +4817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>127</v>
       </c>
@@ -4822,20 +4832,30 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D143">
+    <filterColumn colId="2">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4849,231 +4869,238 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>11</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>72</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>94</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>236</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>26</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>25</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>127</v>
       </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>10</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>17</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>15</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>22</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>19</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>220</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>8</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>5</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>69</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>26</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5084,7 +5111,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -5095,7 +5122,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -5106,7 +5133,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>181</v>
       </c>
@@ -5119,6 +5146,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>